--- a/biology/Médecine/Réseau_SAGIR/Réseau_SAGIR.xlsx
+++ b/biology/Médecine/Réseau_SAGIR/Réseau_SAGIR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_SAGIR</t>
+          <t>Réseau_SAGIR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le réseau SAGIR est un réseau d'acteurs de terrain et de spécialistes en santé animale, en biosécurité, en maladies dites « exotiques »[1] en toxicovigilance[2] et de laboratoires spécialisés. 
-Il a été créé en France (en 1986)[3] pour faciliter la veille écoépidémiologique, la veille épidémiologique, et la détection et l'analyse de maladies ou d'épidémies émergentes ou d'éventuelles urgences sanitaires. 
-Il participe à la bonne gestion des crises écoépidémiologiques ou de crises sanitaires ou vétérinaires impliquant le monde animal (grippe aviaire par exemple). Le réseau a été géré par l'ONCFS puis par l'Office français de la biodiversité (sous la responsabilité de Jean‐Yves Chollet)[4].
-De 2010 à 2016, ce réseau a découvert en moyenne en France une à deux 2 nouvelles maladies chaque année[4]. 
+Le réseau SAGIR est un réseau d'acteurs de terrain et de spécialistes en santé animale, en biosécurité, en maladies dites « exotiques » en toxicovigilance et de laboratoires spécialisés. 
+Il a été créé en France (en 1986) pour faciliter la veille écoépidémiologique, la veille épidémiologique, et la détection et l'analyse de maladies ou d'épidémies émergentes ou d'éventuelles urgences sanitaires. 
+Il participe à la bonne gestion des crises écoépidémiologiques ou de crises sanitaires ou vétérinaires impliquant le monde animal (grippe aviaire par exemple). Le réseau a été géré par l'ONCFS puis par l'Office français de la biodiversité (sous la responsabilité de Jean‐Yves Chollet).
+De 2010 à 2016, ce réseau a découvert en moyenne en France une à deux 2 nouvelles maladies chaque année. 
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_SAGIR</t>
+          <t>Réseau_SAGIR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Enjeux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les enjeux du réseau sont à la croisée des enjeux de conservation, de santé animale et de santé publique[4], il contribue à l'approche One Health préconisée par l'ONU. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les enjeux du réseau sont à la croisée des enjeux de conservation, de santé animale et de santé publique, il contribue à l'approche One Health préconisée par l'ONU. 
 </t>
         </is>
       </c>
